--- a/Final_Table.xlsx
+++ b/Final_Table.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Dropbox\bioinf(grupo)\Algoritmos_LabBio\EXCEL\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="240" windowWidth="18195" windowHeight="8325"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3601" uniqueCount="2880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3636" uniqueCount="2914">
   <si>
     <t>locus</t>
   </si>
@@ -5206,9 +5201,6 @@
   </si>
   <si>
     <t>BioCyc AC</t>
-  </si>
-  <si>
-    <t>Genes codificando RNA (tRNA)</t>
   </si>
   <si>
     <t>BioCyc:NGON242231:GI2G-219-MONOMER</t>
@@ -8879,24 +8871,6 @@
     <t>Note from blast</t>
   </si>
   <si>
-    <t xml:space="preserve">   Plays an important role in the initiation and regulation       of chromosomal replication. Binds to the origin of replication  it   binds specifically double-stranded DNA at a 9 bp consensus (dnaA box): 5'-TTATC[CA]A[CA]A-3'. DnaA binds to ATP and to acidic    phospholipids.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  DNA polymerase III is a complex, multichain enzyme       responsible for most of the replicative synthesis in bacteria.       This DNA polymerase also exhibits 3' to 5' exonuclease activity.       The beta chain is required for initiation of replication once it       is clamped onto DNA, it slides freely (bidirectional and ATP-       independent) along duplex DNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catalyzes the reversible transfer of the terminal       phosphate of ATP to form a long-chain polyphosphate (polyP).   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Catalyzes the transfer of a ribosyl phosphate group from       5-phosphoribose 1-diphosphate to orotate, leading to the formation       of orotidine monophosphate (OMP).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Catalyzes the aldol condensation of dihydroxyacetone       phosphate (DHAP or glycerone-phosphate) with glyceraldehyde 3-       phosphate (G3P) to form fructose 1,6-bisphosphate (FBP) in       gluconeogenesis and the reverse reaction in glycolysis.     </t>
-  </si>
-  <si>
-    <t>Catalyzes the acyloin condensation reaction between C       atoms 2 and 3 of pyruvate and glyceraldehyde 3-phosphate to yield       1-deoxy-D-xylulose-5-phosphate (DXP)</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Catalyzes the methylthiolation of N6-(dimethylallyl)adenosine (i(6)A), leading to the formation of 2-  methylthio-N6-(dimethylallyl)adenosine (ms(2)i(6)A) at position 37   in tRNAs that read codons beginning with uridine.    </t>
   </si>
   <si>
@@ -8906,24 +8880,15 @@
     <t>Methylates ribosomal protein L11.</t>
   </si>
   <si>
-    <t xml:space="preserve">  Biotin-attachment subunit of the 3-methylcrotonyl-CoA       carboxylase, an enzyme that catalyzes the conversion of 3-       methylcrotonyl-CoA to 3-methylglutaconyl-CoA, a critical step for       leucine and isovaleric acid catabolism. </t>
-  </si>
-  <si>
     <t>Involved in arginine biosynthesis.</t>
   </si>
   <si>
-    <t xml:space="preserve">  May be a minor structural protein required for pilus       biogenesis. May be the adhesive component in the pili.  </t>
-  </si>
-  <si>
     <t xml:space="preserve">  Hydrolyzes ATP</t>
   </si>
   <si>
     <t xml:space="preserve">  Catalyzes the phosphorylation of riboflavin (vitamin B2)       to form flavin-mononucleotide (FMN), hence rate-limiting enzyme in       the synthesis of FAD. Essential for TNF-induced reactive oxygen       species (ROS) production. Through its interaction with both       TNFRSF1A and CYBA, physically and functionally couples TNFRSF1A to       NADPH oxidase. TNF-activation of RFK may enhance the incorporation       of FAD in NADPH oxidase, a critical step for the assembly and       activation of NADPH oxidase (By similarity).</t>
   </si>
   <si>
-    <t xml:space="preserve">  Catalyzes the attachment of isoleucine to tRNA(Ile). As       IleRS can inadvertently accommodate and process structurally       similar amino acids such as valine, to avoid such errors it has       two additional distinct tRNA(Ile)-dependent editing activities.       One activity is designated as 'pretransfer' editing and involves       the hydrolysis of activated Val-AMP. The other activity is       designated 'posttransfer' editing and involves deacylation of       mischarged Val-tRNA(Ile).</t>
-  </si>
-  <si>
     <t xml:space="preserve">  This protein specifically catalyzes the removal of   signal peptides from prolipoproteins. </t>
   </si>
   <si>
@@ -8945,13 +8910,145 @@
     <t xml:space="preserve">  Catalyzes the specific phosphorylation of the 3-hydroxyl       group of shikimic acid using ATP as a cosubstrate.  </t>
   </si>
   <si>
-    <t xml:space="preserve">  Cell wall formation.</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Necessary for normal cell division and for the   maintenance of normal septation.</t>
   </si>
   <si>
     <t>Catalyzes the transfer of laurate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Plays an important role in the initiation and regulation of chromosomal replication. Binds to the origin of replication  it   binds specifically double-stranded DNA at a 9 bp consensus (dnaA box): 5'-TTATC[CA]A[CA]A-3'. DnaA binds to ATP and to acidic phospholipids.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  DNA polymerase III is a complex, multichain enzyme responsible for most of the replicative synthesis in bacteria. This DNA polymerase also exhibits 3' to 5' exonuclease activity. The beta chain is required for initiation of replication once it is clamped onto DNA, it slides freely (bidirectional and ATP-independent) along duplex DNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catalyzes the reversible transfer of the terminal phosphate of ATP to form a long-chain polyphosphate (polyP).   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Catalyzes the transfer of a ribosyl phosphate group from 5-phosphoribose 1-diphosphate to orotate, leading to the formation of orotidine monophosphate (OMP).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Catalyzes the aldol condensation of dihydroxyacetone phosphate (DHAP or glycerone-phosphate) with glyceraldehyde 3-phosphate (G3P) to form fructose 1,6-bisphosphate (FBP) in gluconeogenesis and the reverse reaction in glycolysis.     </t>
+  </si>
+  <si>
+    <t>Catalyzes the acyloin condensation reaction between C atoms 2 and 3 of pyruvate and glyceraldehyde 3-phosphate to yield 1-deoxy-D-xylulose-5-phosphate (DXP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Biotin-attachment subunit of the 3-methylcrotonyl-CoA carboxylase, an enzyme that catalyzes the conversion of 3-methylcrotonyl-CoA to 3-methylglutaconyl-CoA, a critical step for leucine and isovaleric acid catabolism. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  May be a minor structural protein required for pilus biogenesis. May be the adhesive component in the pili.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Catalyzes the attachment of isoleucine to tRNA(Ile). As IleRS can inadvertently accommodate and process structurally similar amino acids such as valine, to avoid such errors it has two additional distinct tRNA(Ile)-dependent editing activities. One activity is designated as 'pretransfer' editing and involves the hydrolysis of activated Val-AMP. The other activity is designated 'posttransfer' editing and involves deacylation of       mischarged Val-tRNA(Ile).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cell wall formation. Synthesis of cross-linked peptidoglycan from the lipid intermediates. The enzyme has a penicillin-insensitive transglycosylase N-terminal domain (formation of linear glycan strands) and a penicillin-sensitive transpeptidase C-terminal domain (cross-linking of the peptide subunits)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Not involved in transpeptidation but exclusively catalyzes a DD-carboxypeptidase and DD-endopeptidase reaction.</t>
+  </si>
+  <si>
+    <t>Endoribonuclease that plays a central role in RNA processing and decay. Plays a major role in pre-16S rRNA maturation, probably generating the mature 5'-end, and a minor role in pre-5S and pre-23S rRNA maturation.</t>
+  </si>
+  <si>
+    <t>One of the proteins required for the normal export of preproteins out of the cell cytoplasm. It is a molecular chaperone that binds to a subset of precursor proteins, maintaining them in a translocation-competent state. It also specifically binds to its receptor SecA.</t>
+  </si>
+  <si>
+    <t>Critical role in recombination and DNA repair. Helps process Holliday junction intermediates to mature products by catalyzing branch migration. Has a DNA unwinding activity characteristic of a DNA helicase with a 3'- to 5'- polarity. Unwinds branched duplex DNA (Y-DNA).</t>
+  </si>
+  <si>
+    <t>Catalyzes the ATP-dependent conversion of 7-carboxy-7-deazaguanine (CDG) to 7-cyano-7-deazaguanine (preQ(0)).</t>
+  </si>
+  <si>
+    <t>Plays a role in peptidoglycan recycling by cleaving the terminal beta-1,4-linked N-acetylglucosamine (GlcNAc) from peptide-linked peptidoglycan fragments, giving rise to free       GlcNAc, anhydro-N-acetylmuramic acid and anhydro-N-acetylmuramic acid-linked peptides.</t>
+  </si>
+  <si>
+    <t>Tetrapolymerization of the monopyrrole PBG into the hydroxymethylbilane pre-uroporphyrinogen in several discrete steps.</t>
+  </si>
+  <si>
+    <t>Transfers myristate or laurate, activated on ACP, to (KDO)2-(lauroyl)-lipid IVA.</t>
+  </si>
+  <si>
+    <t>Part of the high-affinity ABC transporter complex ZnuABC involved in zinc import (Probable). ZnuABC-mediated zinc transport is required for comF expression and competence development.</t>
+  </si>
+  <si>
+    <t>This protein is located at the 30S-50S ribosomal subunit interface and may play a role in the structure and function of the aminoacyl-tRNA binding site.</t>
+  </si>
+  <si>
+    <t>Specifically methylates guanosine-37 in various tRNAs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An accessory protein needed during the final step in the assembly of 30S ribosomal subunit, possibly for assembly of the head region. Probably interacts with S19. Essential for efficient processing of 16S rRNA. May be needed both before and after RbfA during the maturation of 16S rRNA. It has affinity for free ribosomal 30S subunits but not for 70S ribosomes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In addition to being a ribosomal protein, S16 also has a cation-dependent endonuclease activity.</t>
+  </si>
+  <si>
+    <t>Part of the twin-arginine translocation (Tat) system that transports large folded proteins containing a characteristic twin-arginine motif in their signal peptide across membranes. TatA could form the protein-conducting channel of the Tat system.</t>
+  </si>
+  <si>
+    <t>DNA-binding protein involved in single-strand DNA break repair, double-strand DNA break repair and base excision repair. Resolves abortive DNA ligation intermediates formed either at base excision sites, or when DNA ligases attempt to repair non-ligatable breaks induced by reactive oxygen species. Catalyzes the release of adenylate groups covalently linked to 5'-phosphate termini, resulting in the production of 5'-phosphate termini that       can be efficiently rejoined</t>
+  </si>
+  <si>
+    <t>Part of the Sec protein translocase complex. Interacts with the SecYEG preprotein conducting channel. SecDF uses the proton motive force (PMF) to complete protein translocation after       the ATP-dependent function of SecA.</t>
+  </si>
+  <si>
+    <t>Forms an intersubunit bridge (bridge B4) with the 23S rRNA of the 50S subunit in the ribosome.</t>
+  </si>
+  <si>
+    <t>Catalyzes the FAD-dependent oxidative deamination of various amines and D-amino acids to yield the corresponding alpha-keto acids, ammonia/amine, and hydrogen peroxide. Oxidizes sarcosine (N-methylglycine), N-ethylglycine and glycine. Can also oxidize the herbicide glyphosate (N-phosphonomethylglycine). Displays lower activities on D-alanine, D-valine, D-proline and D-methionine. Does not act on L-amino acids and other D-amino acids. Is essential for thiamine biosynthesis since the oxidation of glycine catalyzed by ThiO generates the glycine imine intermediate (dehydroglycine) required for the biosynthesis of the thiazole ring of thiamine pyrophosphate.</t>
+  </si>
+  <si>
+    <t>Facilitates transcription termination by a mechanism that involves Rho binding to the nascent RNA, activation of Rho's RNA-dependent ATPase activity, and release of the mRNA from the DNA template.</t>
+  </si>
+  <si>
+    <t>Catalyzes the phosphorylation of pyruvate to phosphoenolpyruvate.</t>
+  </si>
+  <si>
+    <t>Catalyzes the addition of Glc, the second sugar moiety of the O152-antigen repeating unit, to GlcNAc-pyrophosphate-undecaprenol.</t>
+  </si>
+  <si>
+    <t>Increases the formation of ribosomal termination complexes and stimulates activities of RF-1 and RF-2. It binds guanine nucleotides and has strong preference for UGA stop codons.       It may interact directly with the ribosome. The stimulation of RF-1 and RF-2 is significantly reduced by GTP and GDP, but not by GMP</t>
+  </si>
+  <si>
+    <t>Catalyzes the hydrolysis of the adenine ring of phosphoribosyl-AMP.</t>
+  </si>
+  <si>
+    <t>IGPS catalyzes the conversion of PRFAR and glutamine to IGP, AICAR and glutamate. The HisF subunit catalyzes the cyclization activity that produces IGP and AICAR from PRFAR using       the ammonia provided by the HisH subunit</t>
+  </si>
+  <si>
+    <t>IGPS catalyzes the conversion of PRFAR and glutamine to IGP, AICAR and glutamate. The HisH subunit provides the glutamine amidotransferase activity that produces the ammonia necessary to HisF for the synthesis of IGP and AICAR.</t>
+  </si>
+  <si>
+    <t>Part of the ABC transporter complex FbpABC (TC 3.A.1.10.1) involved in Fe(3+) ions import. This protein specifically binds Fe(3+) and is involved in its transmembrane transport.</t>
+  </si>
+  <si>
+    <t>Pyrophosphatase that hydrolyzes the non-canonical purine nucleotides deoxyinosine triphosphate (dITP) and xanthosine triphosphate (XTP) as well as 2'-deoxy-N-6-hydroxylaminopurine triposphate (dHAPTP) to their respective monophosphate       derivatives. Probably excludes non-canonical purines from DNA precursor pool, thus preventing their incorporation into DNA and avoiding chromosomal lesions.</t>
+  </si>
+  <si>
+    <t>Hydrolyzes PPi generated in anabolic reactions.</t>
+  </si>
+  <si>
+    <t>Catalyzes the hydrolysis of dihydroneopterin triphosphate to dihydroneopterin monophosphate and pyrophosphate. Required for efficient folate biosynthesis. Can also hydrolyze nucleoside triphosphates with a preference for dATP.</t>
+  </si>
+  <si>
+    <t>Hydrolyzes diadenosine 5',5'''-P1,P4-tetraphosphate to yield ADP.</t>
+  </si>
+  <si>
+    <t>Involved in the heme biosynthesis. Catalyzes the anaerobic oxidative decarboxylation of propionate groups of rings A and B of coproporphyrinogen-III to yield the vinyl groups in       protoporphyrinogen-IX.</t>
+  </si>
+  <si>
+    <t>Phosphorylation of dTMP to form dTDP in both de novo and salvage pathways of dTTP synthesis.</t>
+  </si>
+  <si>
+    <t>Required for symbiotic nitrogen fixation. Plays a key role in the conversion of malate to acetyl-CoA for efficient tricarboxylic acid cycle function in nitrogen-fixating bacteria.</t>
+  </si>
+  <si>
+    <t>Transfers the gamma-phosphate of ATP to the 4'-position of a tetraacyldisaccharide 1-phosphate intermediate (termed DS-1-P) to form tetraacyldisaccharide 1,4'-bis-phosphate (lipid IVA).</t>
+  </si>
+  <si>
+    <t>RNA coding genes (tRNA)</t>
   </si>
 </sst>
 </file>
@@ -9515,9 +9612,9 @@
     <cellStyle name="Cor4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Cor5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Cor6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Correto" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Correcto" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
@@ -9584,7 +9681,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9619,7 +9716,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9830,8 +9927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q87" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Q89" sqref="Q89"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9890,58 +9987,58 @@
         <v>1364</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>2338</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>2339</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>1363</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>2161</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>2513</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>2162</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>2514</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>2163</v>
-      </c>
       <c r="O1" s="3" t="s">
+        <v>2851</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>2852</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>2853</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>2854</v>
-      </c>
       <c r="R1" s="3" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>1728</v>
       </c>
       <c r="T1" s="3" t="s">
+        <v>2188</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>2094</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>2189</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>2095</v>
-      </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>2190</v>
       </c>
-      <c r="W1" s="3" t="s">
-        <v>2191</v>
-      </c>
       <c r="X1" s="3" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9973,13 +10070,13 @@
         <v>1367</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>8</v>
@@ -9988,25 +10085,25 @@
         <v>9</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>2855</v>
+        <v>2869</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10038,13 +10135,13 @@
         <v>1370</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>16</v>
@@ -10053,28 +10150,28 @@
         <v>17</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>2856</v>
+        <v>2870</v>
       </c>
       <c r="R3" s="2" t="s">
+        <v>2327</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>1831</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>2047</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>2328</v>
       </c>
-      <c r="S3" s="2" t="s">
-        <v>1832</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>2048</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>2096</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>2329</v>
-      </c>
       <c r="W3" s="2" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="Z3" s="6"/>
     </row>
@@ -10107,13 +10204,13 @@
         <v>1372</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>24</v>
@@ -10122,25 +10219,25 @@
         <v>25</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>2857</v>
+        <v>2871</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="Z4" s="6"/>
     </row>
@@ -10170,16 +10267,16 @@
         <v>1374</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="Z5" s="6"/>
     </row>
@@ -10215,13 +10312,13 @@
         <v>1376</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>39</v>
@@ -10230,25 +10327,25 @@
         <v>40</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="Z6" s="6" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10268,7 +10365,7 @@
         <v>45</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10325,37 +10422,37 @@
         <v>1378</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>51</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="Z10" s="6" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10387,37 +10484,37 @@
         <v>1380</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>58</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="Z11" s="6"/>
     </row>
@@ -10453,16 +10550,16 @@
         <v>1382</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>66</v>
@@ -10471,28 +10568,28 @@
         <v>67</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="Z12" s="6" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10521,25 +10618,25 @@
         <v>1384</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="Z13" s="6"/>
     </row>
@@ -10569,31 +10666,31 @@
         <v>1386</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>78</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="Z14" s="6"/>
     </row>
@@ -10623,25 +10720,25 @@
         <v>1388</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="Z15" s="6" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10670,34 +10767,34 @@
         <v>1390</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>89</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="Z16" s="6"/>
     </row>
@@ -10727,22 +10824,22 @@
         <v>1388</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="Z17" s="6"/>
     </row>
@@ -10772,25 +10869,25 @@
         <v>1393</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>100</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="Z18" s="6" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10819,34 +10916,34 @@
         <v>1395</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>106</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="Z19" s="6" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10875,31 +10972,31 @@
         <v>1397</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="Z20" s="6"/>
     </row>
@@ -10932,16 +11029,16 @@
         <v>1399</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>119</v>
@@ -10950,25 +11047,25 @@
         <v>120</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="Z21" s="6" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10997,19 +11094,19 @@
         <v>1401</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="Z22" s="6"/>
     </row>
@@ -11045,16 +11142,16 @@
         <v>1403</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>133</v>
@@ -11063,28 +11160,28 @@
         <v>134</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>2858</v>
+        <v>2872</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="Z23" s="6" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -11113,22 +11210,22 @@
         <v>1405</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="Z24" s="6"/>
     </row>
@@ -11158,34 +11255,34 @@
         <v>1407</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>145</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="Z25" s="6" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -11214,31 +11311,31 @@
         <v>1409</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="Z26" s="6"/>
     </row>
@@ -11268,19 +11365,19 @@
         <v>1411</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>156</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="Z27" s="6"/>
     </row>
@@ -11313,13 +11410,13 @@
         <v>1413</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>163</v>
@@ -11328,28 +11425,28 @@
         <v>164</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>2859</v>
+        <v>2873</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="Y28" s="2" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="Z28" s="6"/>
     </row>
@@ -11379,31 +11476,31 @@
         <v>1415</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>170</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="X29" s="2" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="Z29" s="6"/>
     </row>
@@ -11436,16 +11533,16 @@
         <v>1417</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>177</v>
@@ -11454,28 +11551,28 @@
         <v>178</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>2860</v>
+        <v>2874</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="Z30" s="6" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -11504,10 +11601,10 @@
         <v>1419</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>184</v>
@@ -11516,25 +11613,25 @@
         <v>185</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>2861</v>
+        <v>2854</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="Z31" s="6" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -11566,16 +11663,16 @@
         <v>1421</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>192</v>
@@ -11584,25 +11681,25 @@
         <v>193</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="Z32" s="6" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -11631,10 +11728,10 @@
         <v>1423</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>199</v>
@@ -11643,19 +11740,19 @@
         <v>200</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>2862</v>
+        <v>2855</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="Z33" s="6"/>
     </row>
@@ -11688,10 +11785,10 @@
         <v>1425</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>207</v>
@@ -11700,19 +11797,19 @@
         <v>208</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>2863</v>
+        <v>2856</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="Z34" s="6"/>
     </row>
@@ -11745,40 +11842,40 @@
         <v>1427</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>215</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="Z35" s="6" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -11810,13 +11907,13 @@
         <v>1429</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>222</v>
@@ -11825,25 +11922,25 @@
         <v>223</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>2864</v>
+        <v>2875</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="Z36" s="6" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -11872,16 +11969,16 @@
         <v>1431</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="Z37" s="6"/>
     </row>
@@ -11914,13 +12011,13 @@
         <v>1433</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>235</v>
@@ -11929,19 +12026,19 @@
         <v>236</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="Z38" s="6"/>
     </row>
@@ -11977,16 +12074,16 @@
         <v>1435</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>244</v>
@@ -11995,28 +12092,28 @@
         <v>245</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>2865</v>
+        <v>2857</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="W39" s="2" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="Z39" s="6" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12045,7 +12142,7 @@
         <v>1437</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>31</v>
@@ -12054,7 +12151,7 @@
         <v>251</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="Z40" s="6"/>
     </row>
@@ -12084,19 +12181,19 @@
         <v>1439</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>257</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="Z41" s="6"/>
     </row>
@@ -12129,16 +12226,16 @@
         <v>1441</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>263</v>
@@ -12147,28 +12244,28 @@
         <v>264</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>2865</v>
+        <v>2857</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="W42" s="2" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="Z42" s="6" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12197,7 +12294,7 @@
         <v>1443</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>270</v>
@@ -12206,13 +12303,13 @@
         <v>271</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>2866</v>
+        <v>2876</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="X43" s="2" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="Z43" s="6"/>
     </row>
@@ -12242,25 +12339,25 @@
         <v>1445</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>277</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="X44" s="2" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="Z44" s="6"/>
     </row>
@@ -12290,31 +12387,31 @@
         <v>1447</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>283</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="W45" s="2" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="X45" s="2" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="Z45" s="6" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12343,34 +12440,34 @@
         <v>1449</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="O46" s="2" t="s">
         <v>289</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="W46" s="2" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="X46" s="2" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="Z46" s="6" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12399,34 +12496,34 @@
         <v>1451</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>295</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="W47" s="2" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="X47" s="2" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="Z47" s="6"/>
     </row>
@@ -12456,28 +12553,28 @@
         <v>1453</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>301</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="W48" s="2" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="X48" s="2" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="Z48" s="6"/>
     </row>
@@ -12510,16 +12607,16 @@
         <v>1455</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>308</v>
@@ -12528,28 +12625,28 @@
         <v>309</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="X49" s="2" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="Y49" s="2" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="Z49" s="6" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="50" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12578,10 +12675,10 @@
         <v>1457</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>315</v>
@@ -12590,22 +12687,22 @@
         <v>316</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>2867</v>
+        <v>2858</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="Z50" s="6"/>
     </row>
@@ -12635,16 +12732,16 @@
         <v>1459</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="O51" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="Z51" s="6"/>
     </row>
@@ -12674,28 +12771,28 @@
         <v>1461</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>327</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="W52" s="2" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="X52" s="2" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="Z52" s="6"/>
     </row>
@@ -12728,43 +12825,43 @@
         <v>1463</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="O53" s="2" t="s">
         <v>334</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="W53" s="2" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="X53" s="2" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="Z53" s="6" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12784,13 +12881,13 @@
         <v>339</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="X54" s="2" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="55" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12822,13 +12919,13 @@
         <v>1465</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>346</v>
@@ -12837,19 +12934,19 @@
         <v>347</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>2868</v>
+        <v>2859</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="W55" s="2" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="X55" s="2" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="Z55" s="6"/>
     </row>
@@ -12885,13 +12982,13 @@
         <v>1467</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="O56" s="2" t="s">
         <v>355</v>
@@ -12900,31 +12997,31 @@
         <v>356</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>2869</v>
+        <v>2877</v>
       </c>
       <c r="R56" s="2" t="s">
         <v>355</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="W56" s="2" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="X56" s="2" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="Z56" s="6" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12953,28 +13050,28 @@
         <v>1469</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="O57" s="2" t="s">
         <v>362</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="W57" s="2" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="X57" s="2" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="Z57" s="6"/>
     </row>
@@ -13010,16 +13107,16 @@
         <v>1471</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="O58" s="2" t="s">
         <v>370</v>
@@ -13028,22 +13125,22 @@
         <v>371</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>2870</v>
+        <v>2860</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="V58" s="2" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="W58" s="2" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="X58" s="2" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="Z58" s="6"/>
     </row>
@@ -13079,16 +13176,16 @@
         <v>1473</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="O59" s="2" t="s">
         <v>379</v>
@@ -13097,25 +13194,25 @@
         <v>380</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>2871</v>
+        <v>2861</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="V59" s="2" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="W59" s="2" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="X59" s="2" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="Z59" s="6"/>
     </row>
@@ -13148,37 +13245,37 @@
         <v>1475</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="O60" s="2" t="s">
         <v>387</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="U60" s="2" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="V60" s="2" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="W60" s="2" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="X60" s="2" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="Z60" s="6"/>
     </row>
@@ -13225,43 +13322,43 @@
         <v>1477</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="O62" s="2" t="s">
         <v>393</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="R62" s="2" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="V62" s="2" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="W62" s="2" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="X62" s="2" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="Z62" s="6"/>
     </row>
@@ -13291,34 +13388,34 @@
         <v>1479</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="O63" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V63" s="2" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="W63" s="2" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="X63" s="2" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="Z63" s="6" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="64" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13347,16 +13444,16 @@
         <v>1481</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="O64" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="Z64" s="6"/>
     </row>
@@ -13386,34 +13483,34 @@
         <v>1483</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="O65" s="2" t="s">
         <v>409</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="R65" s="2" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="V65" s="2" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="W65" s="2" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="X65" s="2" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="Z65" s="6"/>
     </row>
@@ -13449,13 +13546,13 @@
         <v>1485</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="O66" s="2" t="s">
         <v>417</v>
@@ -13464,22 +13561,22 @@
         <v>418</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>2872</v>
+        <v>2862</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="U66" s="2" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="V66" s="2" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="W66" s="2" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="X66" s="2" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="Z66" s="6"/>
     </row>
@@ -13509,7 +13606,7 @@
         <v>1487</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="O67" s="2" t="s">
         <v>424</v>
@@ -13518,19 +13615,19 @@
         <v>425</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>2873</v>
+        <v>2863</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="V67" s="2" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="W67" s="2" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="X67" s="2" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="Z67" s="6"/>
     </row>
@@ -13560,31 +13657,31 @@
         <v>1489</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="O68" s="2" t="s">
         <v>431</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="V68" s="2" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="W68" s="2" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="X68" s="2" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="Z68" s="6"/>
     </row>
@@ -13614,7 +13711,7 @@
         <v>1491</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="O69" s="2" t="s">
         <v>437</v>
@@ -13623,13 +13720,13 @@
         <v>425</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>2874</v>
+        <v>2864</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="X69" s="2" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="Z69" s="6"/>
     </row>
@@ -13659,7 +13756,7 @@
         <v>1493</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="O70" s="2" t="s">
         <v>31</v>
@@ -13668,13 +13765,13 @@
         <v>443</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>2875</v>
+        <v>2865</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="X70" s="2" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="Z70" s="6"/>
     </row>
@@ -13704,28 +13801,28 @@
         <v>1413</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="V71" s="2" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="W71" s="2" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="X71" s="2" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="Z71" s="6"/>
     </row>
@@ -13755,28 +13852,28 @@
         <v>1496</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="O72" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="R72" s="2" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="V72" s="2" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="W72" s="2" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="X72" s="2" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="Z72" s="6"/>
     </row>
@@ -13806,40 +13903,40 @@
         <v>1498</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="O73" s="2" t="s">
         <v>459</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V73" s="2" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="W73" s="2" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="X73" s="2" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="Z73" s="6" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="74" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13871,37 +13968,37 @@
         <v>1500</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>466</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="V74" s="2" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="W74" s="2" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="X74" s="2" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="Z74" s="6" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="75" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13930,31 +14027,31 @@
         <v>1502</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="O75" s="2" t="s">
         <v>472</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="X75" s="2" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="Z75" s="6" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="76" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13989,16 +14086,16 @@
         <v>1445</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="O76" s="2" t="s">
         <v>480</v>
@@ -14007,25 +14104,25 @@
         <v>481</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="U76" s="2" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="V76" s="2" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="W76" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="X76" s="2" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="Y76" s="2" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="Z76" s="6"/>
     </row>
@@ -14061,16 +14158,16 @@
         <v>1505</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="O77" s="2" t="s">
         <v>489</v>
@@ -14079,28 +14176,28 @@
         <v>490</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>2876</v>
+        <v>2866</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="T77" s="2" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="U77" s="1" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="V77" s="2" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="W77" s="2" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="X77" s="2" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="Z77" s="6" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="78" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14129,37 +14226,37 @@
         <v>1507</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="O78" s="2" t="s">
         <v>496</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="V78" s="2" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="W78" s="2" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="X78" s="2" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="Y78" s="2" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="Z78" s="6" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="79" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14188,22 +14285,22 @@
         <v>1509</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="O79" s="2" t="s">
         <v>502</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="X79" s="2" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="Z79" s="6"/>
     </row>
@@ -14233,22 +14330,22 @@
         <v>1511</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>508</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="X80" s="2" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="Z80" s="6"/>
     </row>
@@ -14278,10 +14375,10 @@
         <v>1513</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="O81" s="2" t="s">
         <v>270</v>
@@ -14290,10 +14387,10 @@
         <v>514</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="X81" s="2" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="Z81" s="6"/>
     </row>
@@ -14323,22 +14420,22 @@
         <v>1515</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="O82" s="2" t="s">
         <v>520</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="X82" s="2" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="Z82" s="6"/>
     </row>
@@ -14347,7 +14444,7 @@
         <v>521</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>522</v>
@@ -14371,16 +14468,16 @@
         <v>1517</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="O83" s="2" t="s">
         <v>526</v>
@@ -14389,19 +14486,19 @@
         <v>527</v>
       </c>
       <c r="Q83" s="2" t="s">
-        <v>2877</v>
+        <v>2878</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="V83" s="2" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="W83" s="2" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="X83" s="2" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="Z83" s="6"/>
     </row>
@@ -14434,10 +14531,10 @@
         <v>1519</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="O84" s="2" t="s">
         <v>534</v>
@@ -14446,22 +14543,22 @@
         <v>535</v>
       </c>
       <c r="Q84" s="2" t="s">
-        <v>2878</v>
+        <v>2867</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="V84" s="2" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="W84" s="2" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="X84" s="2" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="Z84" s="6" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="85" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14490,28 +14587,28 @@
         <v>1521</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="O85" s="2" t="s">
         <v>541</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q85" s="2" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="S85" s="2" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="V85" s="2" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="W85" s="2" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="X85" s="2" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="Z85" s="6"/>
     </row>
@@ -14541,25 +14638,25 @@
         <v>1397</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="O86" s="2" t="s">
         <v>547</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q86" s="2" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="X86" s="2" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="Z86" s="6"/>
     </row>
@@ -14589,25 +14686,25 @@
         <v>1524</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="O87" s="2" t="s">
         <v>547</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q87" s="2" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="R87" s="2" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="S87" s="2" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="X87" s="2" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="Z87" s="6"/>
     </row>
@@ -14640,34 +14737,34 @@
         <v>1413</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="O88" s="2" t="s">
         <v>559</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q88" s="2" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="S88" s="2" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="T88" s="2" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="V88" s="2" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="W88" s="2" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="X88" s="2" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="Z88" s="6"/>
     </row>
@@ -14697,13 +14794,13 @@
         <v>1527</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="O89" s="2" t="s">
         <v>565</v>
@@ -14712,19 +14809,19 @@
         <v>566</v>
       </c>
       <c r="Q89" s="2" t="s">
-        <v>2879</v>
+        <v>2868</v>
       </c>
       <c r="S89" s="2" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="V89" s="2" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="W89" s="2" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="X89" s="2" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="Z89" s="6"/>
     </row>
@@ -14760,13 +14857,13 @@
         <v>1726</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="O90" s="2" t="s">
         <v>573</v>
@@ -14775,28 +14872,28 @@
         <v>574</v>
       </c>
       <c r="S90" s="2" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="T90" s="2" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="U90" s="2" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="V90" s="2" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="W90" s="2" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="X90" s="2" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="Y90" s="2" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="Z90" s="6" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="91" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14828,13 +14925,13 @@
         <v>1531</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="O91" s="2" t="s">
         <v>581</v>
@@ -14842,23 +14939,26 @@
       <c r="P91" s="2" t="s">
         <v>582</v>
       </c>
+      <c r="Q91" s="2" t="s">
+        <v>2879</v>
+      </c>
       <c r="S91" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="T91" s="2" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="V91" s="2" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="W91" s="2" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="X91" s="2" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="Y91" s="2" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="Z91" s="6"/>
     </row>
@@ -14902,16 +15002,16 @@
         <v>1533</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="O93" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P93" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="Z93" s="6"/>
     </row>
@@ -14941,34 +15041,34 @@
         <v>1535</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="O94" s="2" t="s">
         <v>593</v>
       </c>
       <c r="P94" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q94" s="2" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="R94" s="2" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V94" s="2" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="W94" s="2" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="X94" s="2" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="Z94" s="6"/>
     </row>
@@ -14998,37 +15098,37 @@
         <v>1537</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="O95" s="2" t="s">
         <v>599</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="R95" s="2" t="s">
         <v>599</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="V95" s="2" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="W95" s="2" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="X95" s="2" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="Z95" s="6" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="96" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15057,10 +15157,10 @@
         <v>1539</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="O96" s="2" t="s">
         <v>605</v>
@@ -15068,20 +15168,23 @@
       <c r="P96" s="2" t="s">
         <v>606</v>
       </c>
+      <c r="Q96" s="2" t="s">
+        <v>2880</v>
+      </c>
       <c r="R96" s="2" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="V96" s="2" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="W96" s="2" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="X96" s="2" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="Z96" s="6"/>
     </row>
@@ -15111,37 +15214,37 @@
         <v>1431</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="O97" s="2" t="s">
         <v>612</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q97" s="2" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="S97" s="2" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="V97" s="2" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="W97" s="2" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="X97" s="2" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="Y97" s="2" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="Z97" s="6" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="98" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15170,13 +15273,13 @@
         <v>1374</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="O98" s="2" t="s">
         <v>618</v>
@@ -15184,20 +15287,23 @@
       <c r="P98" s="2" t="s">
         <v>619</v>
       </c>
+      <c r="Q98" s="2" t="s">
+        <v>2881</v>
+      </c>
       <c r="R98" s="2" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="V98" s="2" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="W98" s="2" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="X98" s="2" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="Z98" s="6"/>
     </row>
@@ -15227,13 +15333,13 @@
         <v>1543</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="O99" s="2" t="s">
         <v>625</v>
@@ -15241,23 +15347,26 @@
       <c r="P99" s="2" t="s">
         <v>626</v>
       </c>
+      <c r="Q99" s="2" t="s">
+        <v>2882</v>
+      </c>
       <c r="R99" s="2" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="V99" s="2" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="W99" s="2" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="X99" s="2" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="Z99" s="6" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="100" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15292,16 +15401,16 @@
         <v>1545</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="O100" s="2" t="s">
         <v>634</v>
@@ -15310,25 +15419,25 @@
         <v>635</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="T100" s="2" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="U100" s="2" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="V100" s="2" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="W100" s="2" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="X100" s="2" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="Z100" s="6" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="101" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15357,19 +15466,19 @@
         <v>1547</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="O101" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="S101" s="2" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="X101" s="2" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="Z101" s="6"/>
     </row>
@@ -15399,16 +15508,16 @@
         <v>1549</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="O102" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P102" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="S102" s="2" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="Z102" s="6"/>
     </row>
@@ -15438,25 +15547,25 @@
         <v>1551</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="O103" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P103" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q103" s="2" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="X103" s="2" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="Z103" s="6" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="104" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15485,16 +15594,16 @@
         <v>1553</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="O104" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="S104" s="2" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="Z104" s="6"/>
     </row>
@@ -15524,34 +15633,34 @@
         <v>1555</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="O105" s="2" t="s">
         <v>661</v>
       </c>
       <c r="P105" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q105" s="2" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="R105" s="2" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="S105" s="2" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="V105" s="2" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="W105" s="2" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="X105" s="2" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="Z105" s="6"/>
     </row>
@@ -15581,16 +15690,16 @@
         <v>1557</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="O106" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P106" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="S106" s="2" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="Z106" s="6"/>
     </row>
@@ -15620,16 +15729,16 @@
         <v>1559</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="O107" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P107" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="S107" s="2" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="Z107" s="6"/>
     </row>
@@ -15650,10 +15759,10 @@
         <v>526</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="X108" s="2" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="109" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15685,10 +15794,10 @@
         <v>1561</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="O109" s="2" t="s">
         <v>682</v>
@@ -15697,10 +15806,10 @@
         <v>683</v>
       </c>
       <c r="S109" s="2" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="X109" s="2" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="Z109" s="6"/>
     </row>
@@ -15730,13 +15839,13 @@
         <v>1563</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="N110" s="2" t="s">
         <v>1727</v>
@@ -15747,20 +15856,23 @@
       <c r="P110" s="2" t="s">
         <v>690</v>
       </c>
+      <c r="Q110" s="2" t="s">
+        <v>2883</v>
+      </c>
       <c r="S110" s="2" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="T110" s="2" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="V110" s="2" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="W110" s="2" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="X110" s="2" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="Z110" s="6"/>
     </row>
@@ -15790,19 +15902,19 @@
         <v>1565</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="O111" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P111" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="S111" s="2" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="X111" s="2" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="Z111" s="6"/>
     </row>
@@ -15832,13 +15944,13 @@
         <v>1567</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="N112" s="2" t="s">
         <v>1727</v>
@@ -15847,25 +15959,25 @@
         <v>701</v>
       </c>
       <c r="P112" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q112" s="2" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="S112" s="2" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="T112" s="2" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="V112" s="2" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="W112" s="2" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="X112" s="2" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="Z112" s="6"/>
     </row>
@@ -15895,7 +16007,7 @@
         <v>1569</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="N113" s="2" t="s">
         <v>1727</v>
@@ -15904,25 +16016,25 @@
         <v>31</v>
       </c>
       <c r="P113" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q113" s="2" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="S113" s="2" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="T113" s="2" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="V113" s="2" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="W113" s="2" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="X113" s="2" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="Z113" s="6"/>
     </row>
@@ -15955,16 +16067,16 @@
         <v>1571</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="O114" s="2" t="s">
         <v>713</v>
@@ -15972,23 +16084,26 @@
       <c r="P114" s="2" t="s">
         <v>714</v>
       </c>
+      <c r="Q114" s="2" t="s">
+        <v>2884</v>
+      </c>
       <c r="S114" s="2" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="T114" s="2" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="V114" s="2" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="W114" s="2" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="X114" s="2" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="Z114" s="6" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="115" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16017,25 +16132,25 @@
         <v>1573</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="O115" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P115" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q115" s="2" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="R115" s="2" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="S115" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="X115" s="2" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="Z115" s="6"/>
     </row>
@@ -16065,22 +16180,22 @@
         <v>1575</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="O116" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P116" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="S116" s="2" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="V116" s="2" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="W116" s="2" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="Z116" s="6"/>
     </row>
@@ -16110,28 +16225,28 @@
         <v>1577</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="O117" s="2" t="s">
         <v>730</v>
       </c>
       <c r="P117" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q117" s="2" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="S117" s="2" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="X117" s="2" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="Z117" s="6" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="118" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16163,40 +16278,40 @@
         <v>1519</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="O118" s="2" t="s">
         <v>737</v>
       </c>
       <c r="P118" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q118" s="2" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="S118" s="2" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="T118" s="2" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="V118" s="2" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="W118" s="2" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="X118" s="2" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="Z118" s="6" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="119" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16225,22 +16340,22 @@
         <v>1580</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="O119" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P119" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q119" s="2" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="S119" s="2" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="X119" s="2" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="Z119" s="6"/>
     </row>
@@ -16270,16 +16385,16 @@
         <v>1582</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="O120" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P120" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="S120" s="2" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="Z120" s="6"/>
     </row>
@@ -16309,37 +16424,37 @@
         <v>1421</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="O121" s="2" t="s">
         <v>753</v>
       </c>
       <c r="P121" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q121" s="2" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="R121" s="2" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="S121" s="2" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="V121" s="2" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="W121" s="2" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="X121" s="2" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="Z121" s="6" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="122" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16368,34 +16483,34 @@
         <v>1585</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="O122" s="2" t="s">
         <v>759</v>
       </c>
       <c r="P122" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q122" s="2" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="R122" s="2" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="S122" s="2" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="V122" s="2" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="W122" s="2" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="X122" s="2" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="Z122" s="6"/>
     </row>
@@ -16425,34 +16540,34 @@
         <v>1587</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="O123" s="2" t="s">
         <v>765</v>
       </c>
       <c r="P123" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q123" s="2" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="S123" s="2" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V123" s="2" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="W123" s="2" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="X123" s="2" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="Z123" s="6" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="124" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16481,31 +16596,31 @@
         <v>1565</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="O124" s="2" t="s">
         <v>771</v>
       </c>
       <c r="P124" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q124" s="2" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="S124" s="2" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="V124" s="2" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="W124" s="2" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="X124" s="2" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="Z124" s="6"/>
     </row>
@@ -16541,16 +16656,16 @@
         <v>1590</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="O125" s="2" t="s">
         <v>779</v>
@@ -16558,26 +16673,29 @@
       <c r="P125" s="2" t="s">
         <v>780</v>
       </c>
+      <c r="Q125" s="2" t="s">
+        <v>2885</v>
+      </c>
       <c r="S125" s="2" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="T125" s="2" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="U125" s="2" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="V125" s="2" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="W125" s="2" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="X125" s="2" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="Z125" s="6" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="126" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16597,10 +16715,10 @@
         <v>31</v>
       </c>
       <c r="P126" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="X126" s="2" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="127" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16643,31 +16761,31 @@
         <v>1592</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="O128" s="2" t="s">
         <v>790</v>
       </c>
       <c r="P128" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q128" s="2" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="S128" s="2" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="V128" s="2" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="W128" s="2" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="X128" s="2" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="Z128" s="6" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="129" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16696,34 +16814,34 @@
         <v>1594</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="O129" s="2" t="s">
         <v>796</v>
       </c>
       <c r="P129" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q129" s="2" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="S129" s="2" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="V129" s="2" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="W129" s="2" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="X129" s="2" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="Z129" s="6" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="130" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16743,13 +16861,13 @@
         <v>801</v>
       </c>
       <c r="P130" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q130" s="2" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="X130" s="2" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="131" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16784,10 +16902,10 @@
         <v>1580</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="O131" s="2" t="s">
         <v>809</v>
@@ -16796,25 +16914,25 @@
         <v>810</v>
       </c>
       <c r="R131" s="2" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="S131" s="2" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="T131" s="2" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="V131" s="2" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="W131" s="2" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="X131" s="2" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="Z131" s="6" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="132" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16843,13 +16961,13 @@
         <v>1597</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="O132" s="2" t="s">
         <v>565</v>
@@ -16857,17 +16975,20 @@
       <c r="P132" s="2" t="s">
         <v>566</v>
       </c>
+      <c r="Q132" s="2" t="s">
+        <v>2886</v>
+      </c>
       <c r="S132" s="2" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="V132" s="2" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="W132" s="2" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="X132" s="2" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="Z132" s="6"/>
     </row>
@@ -16897,31 +17018,31 @@
         <v>1599</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="O133" s="2" t="s">
         <v>821</v>
       </c>
       <c r="P133" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q133" s="2" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="S133" s="2" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="V133" s="2" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="W133" s="2" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="X133" s="2" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="Z133" s="6"/>
     </row>
@@ -16957,34 +17078,34 @@
         <v>1601</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="O134" s="2" t="s">
         <v>829</v>
       </c>
       <c r="P134" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q134" s="2" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="S134" s="2" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="V134" s="2" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="W134" s="2" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="X134" s="2" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="Z134" s="6"/>
     </row>
@@ -17014,16 +17135,16 @@
         <v>1603</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="O135" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P135" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="S135" s="2" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="Z135" s="6"/>
     </row>
@@ -17053,16 +17174,16 @@
         <v>1605</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="O136" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P136" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="S136" s="2" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="Z136" s="6"/>
     </row>
@@ -17092,16 +17213,16 @@
         <v>1449</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="O137" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P137" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="S137" s="2" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="Z137" s="6"/>
     </row>
@@ -17131,19 +17252,19 @@
         <v>1608</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="O138" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P138" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="S138" s="2" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="X138" s="2" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="Z138" s="6"/>
     </row>
@@ -17173,16 +17294,16 @@
         <v>1610</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="O139" s="2" t="s">
         <v>855</v>
       </c>
       <c r="P139" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="S139" s="2" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="Z139" s="6"/>
     </row>
@@ -17212,16 +17333,16 @@
         <v>1612</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="O140" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P140" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="S140" s="2" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="Z140" s="6"/>
     </row>
@@ -17251,10 +17372,10 @@
         <v>1614</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="O141" s="2" t="s">
         <v>866</v>
@@ -17262,20 +17383,23 @@
       <c r="P141" s="2" t="s">
         <v>867</v>
       </c>
+      <c r="Q141" s="2" t="s">
+        <v>2887</v>
+      </c>
       <c r="R141" s="2" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="S141" s="2" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="V141" s="2" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="W141" s="2" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="X141" s="2" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="Z141" s="6"/>
     </row>
@@ -17305,34 +17429,34 @@
         <v>1616</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="O142" s="2" t="s">
         <v>873</v>
       </c>
       <c r="P142" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q142" s="2" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="R142" s="2" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="S142" s="2" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="V142" s="2" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="W142" s="2" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="X142" s="2" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="Z142" s="6"/>
     </row>
@@ -17362,31 +17486,31 @@
         <v>1618</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="O143" s="2" t="s">
         <v>879</v>
       </c>
       <c r="P143" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q143" s="2" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="S143" s="2" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="V143" s="2" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="W143" s="2" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="X143" s="2" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="Z143" s="6" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="144" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -17418,13 +17542,13 @@
         <v>1608</v>
       </c>
       <c r="K144" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="O144" s="2" t="s">
         <v>886</v>
@@ -17432,23 +17556,26 @@
       <c r="P144" s="2" t="s">
         <v>887</v>
       </c>
+      <c r="Q144" s="2" t="s">
+        <v>2888</v>
+      </c>
       <c r="R144" s="2" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="S144" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="V144" s="2" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="W144" s="2" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="X144" s="2" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="Z144" s="6" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="145" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -17480,10 +17607,10 @@
         <v>1621</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="O145" s="2" t="s">
         <v>894</v>
@@ -17491,20 +17618,23 @@
       <c r="P145" s="2" t="s">
         <v>895</v>
       </c>
+      <c r="Q145" s="2" t="s">
+        <v>2889</v>
+      </c>
       <c r="S145" s="2" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="T145" s="2" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="V145" s="2" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="W145" s="2" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="X145" s="2" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="Z145" s="6"/>
     </row>
@@ -17537,10 +17667,10 @@
         <v>1447</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="O146" s="2" t="s">
         <v>902</v>
@@ -17548,20 +17678,23 @@
       <c r="P146" s="2" t="s">
         <v>903</v>
       </c>
+      <c r="Q146" s="2" t="s">
+        <v>2890</v>
+      </c>
       <c r="R146" s="2" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="S146" s="2" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="V146" s="2" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="W146" s="2" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="X146" s="2" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="Z146" s="6"/>
     </row>
@@ -17594,13 +17727,13 @@
         <v>1624</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="O147" s="2" t="s">
         <v>910</v>
@@ -17608,20 +17741,23 @@
       <c r="P147" s="2" t="s">
         <v>911</v>
       </c>
+      <c r="Q147" s="2" t="s">
+        <v>2891</v>
+      </c>
       <c r="R147" s="2" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="S147" s="2" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="V147" s="2" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="W147" s="2" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="X147" s="2" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="Z147" s="6"/>
     </row>
@@ -17651,43 +17787,43 @@
         <v>1626</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="O148" s="2" t="s">
         <v>599</v>
       </c>
       <c r="P148" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q148" s="2" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="R148" s="2" t="s">
         <v>599</v>
       </c>
       <c r="S148" s="2" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="T148" s="2" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="U148" s="1" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="V148" s="2" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="W148" s="2" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="X148" s="2" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="Z148" s="6" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="149" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -17716,40 +17852,40 @@
         <v>1409</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="O149" s="2" t="s">
         <v>922</v>
       </c>
       <c r="P149" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q149" s="2" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="R149" s="2" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="S149" s="2" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="V149" s="2" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="W149" s="2" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="X149" s="2" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="Y149" s="2" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="Z149" s="6" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="150" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -17778,22 +17914,22 @@
         <v>1629</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="O150" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P150" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q150" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="S150" s="2" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="X150" s="2" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="Z150" s="6"/>
     </row>
@@ -17823,19 +17959,19 @@
         <v>1631</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="O151" s="2" t="s">
         <v>855</v>
       </c>
       <c r="P151" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="S151" s="2" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="X151" s="2" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="Z151" s="6"/>
     </row>
@@ -17865,10 +18001,10 @@
         <v>1511</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="O152" s="2" t="s">
         <v>938</v>
@@ -17877,10 +18013,10 @@
         <v>939</v>
       </c>
       <c r="S152" s="2" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="X152" s="2" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="Z152" s="6"/>
     </row>
@@ -17910,37 +18046,37 @@
         <v>1634</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="L153" s="2" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="O153" s="2" t="s">
         <v>945</v>
       </c>
       <c r="P153" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q153" s="2" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="R153" s="2" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="S153" s="2" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V153" s="2" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="W153" s="2" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="X153" s="2" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="Z153" s="6"/>
     </row>
@@ -17970,37 +18106,37 @@
         <v>1636</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="O154" s="2" t="s">
         <v>951</v>
       </c>
       <c r="P154" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q154" s="2" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="R154" s="2" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="S154" s="2" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="V154" s="2" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="W154" s="2" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="X154" s="2" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="Z154" s="6"/>
     </row>
@@ -18033,13 +18169,13 @@
         <v>1481</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="O155" s="2" t="s">
         <v>958</v>
@@ -18047,20 +18183,23 @@
       <c r="P155" s="2" t="s">
         <v>959</v>
       </c>
+      <c r="Q155" s="2" t="s">
+        <v>2892</v>
+      </c>
       <c r="R155" s="2" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="S155" s="2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="V155" s="2" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="W155" s="2" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="X155" s="2" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="Z155" s="6"/>
     </row>
@@ -18090,10 +18229,10 @@
         <v>1388</v>
       </c>
       <c r="K156" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L156" s="2" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="O156" s="2" t="s">
         <v>965</v>
@@ -18101,23 +18240,26 @@
       <c r="P156" s="2" t="s">
         <v>966</v>
       </c>
+      <c r="Q156" s="2" t="s">
+        <v>2893</v>
+      </c>
       <c r="R156" s="2" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="S156" s="2" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="V156" s="2" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="W156" s="2" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="X156" s="2" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="Z156" s="6" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="157" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -18152,16 +18294,16 @@
         <v>1388</v>
       </c>
       <c r="K157" s="2" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="L157" s="2" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="N157" s="2" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="O157" s="2" t="s">
         <v>974</v>
@@ -18170,22 +18312,22 @@
         <v>975</v>
       </c>
       <c r="S157" s="2" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="T157" s="2" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="U157" s="2" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="V157" s="2" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="W157" s="2" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="X157" s="2" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="Z157" s="6"/>
     </row>
@@ -18215,34 +18357,34 @@
         <v>1413</v>
       </c>
       <c r="K158" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L158" s="2" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="O158" s="2" t="s">
         <v>981</v>
       </c>
       <c r="P158" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="S158" s="2" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="V158" s="2" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="W158" s="2" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="X158" s="2" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="Z158" s="6" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="159" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -18271,22 +18413,22 @@
         <v>1642</v>
       </c>
       <c r="K159" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="O159" s="2" t="s">
         <v>987</v>
       </c>
       <c r="P159" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q159" s="2" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="S159" s="2" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="X159" s="2" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="Z159" s="6"/>
     </row>
@@ -18316,25 +18458,25 @@
         <v>1644</v>
       </c>
       <c r="K160" s="2" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="L160" s="2" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="M160" s="2" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="O160" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P160" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="S160" s="2" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="X160" s="2" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="Z160" s="6"/>
     </row>
@@ -18367,13 +18509,13 @@
         <v>1646</v>
       </c>
       <c r="K161" s="2" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="L161" s="2" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="O161" s="2" t="s">
         <v>999</v>
@@ -18381,20 +18523,23 @@
       <c r="P161" s="2" t="s">
         <v>1000</v>
       </c>
+      <c r="Q161" s="2" t="s">
+        <v>2894</v>
+      </c>
       <c r="R161" s="2" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="S161" s="2" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="V161" s="2" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="W161" s="2" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="X161" s="2" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="Z161" s="6"/>
     </row>
@@ -18427,13 +18572,13 @@
         <v>1590</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="O162" s="2" t="s">
         <v>1007</v>
@@ -18441,20 +18586,23 @@
       <c r="P162" s="2" t="s">
         <v>1008</v>
       </c>
+      <c r="Q162" s="2" t="s">
+        <v>2894</v>
+      </c>
       <c r="R162" s="2" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="S162" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="V162" s="2" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="W162" s="2" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="X162" s="2" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="Z162" s="6"/>
     </row>
@@ -18487,13 +18635,13 @@
         <v>1649</v>
       </c>
       <c r="K163" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L163" s="2" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="O163" s="2" t="s">
         <v>1015</v>
@@ -18501,23 +18649,26 @@
       <c r="P163" s="2" t="s">
         <v>1016</v>
       </c>
+      <c r="Q163" s="2" t="s">
+        <v>2895</v>
+      </c>
       <c r="R163" s="2" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="S163" s="2" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="V163" s="2" t="s">
+        <v>2464</v>
+      </c>
+      <c r="W163" s="2" t="s">
         <v>2465</v>
       </c>
-      <c r="W163" s="2" t="s">
-        <v>2466</v>
-      </c>
       <c r="X163" s="2" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="Z163" s="6" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="164" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -18546,40 +18697,40 @@
         <v>1485</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="L164" s="2" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="O164" s="2" t="s">
         <v>1022</v>
       </c>
       <c r="P164" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q164" s="2" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="S164" s="2" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="T164" s="2" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="V164" s="2" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="W164" s="2" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="X164" s="2" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="Z164" s="6" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="165" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -18608,34 +18759,34 @@
         <v>1652</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="L165" s="2" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="O165" s="2" t="s">
         <v>1028</v>
       </c>
       <c r="P165" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q165" s="2" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="R165" s="2" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="S165" s="2" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="X165" s="2" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="Z165" s="6" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="166" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -18664,34 +18815,34 @@
         <v>1425</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="L166" s="2" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="O166" s="2" t="s">
         <v>1028</v>
       </c>
       <c r="P166" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q166" s="2" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="R166" s="2" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="S166" s="2" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="X166" s="2" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="Z166" s="6" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="167" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -18720,13 +18871,13 @@
         <v>1655</v>
       </c>
       <c r="K167" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L167" s="2" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="O167" s="2" t="s">
         <v>1039</v>
@@ -18734,17 +18885,20 @@
       <c r="P167" s="2" t="s">
         <v>1040</v>
       </c>
+      <c r="Q167" s="2" t="s">
+        <v>2896</v>
+      </c>
       <c r="S167" s="2" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="V167" s="2" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="W167" s="2" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="X167" s="2" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="Z167" s="6"/>
     </row>
@@ -18774,37 +18928,37 @@
         <v>1657</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="L168" s="2" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="O168" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="P168" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q168" s="2" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="R168" s="2" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="S168" s="2" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="V168" s="2" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="W168" s="2" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="X168" s="2" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="Z168" s="6" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="169" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -18836,13 +18990,13 @@
         <v>1659</v>
       </c>
       <c r="K169" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="O169" s="2" t="s">
         <v>1053</v>
@@ -18850,20 +19004,23 @@
       <c r="P169" s="2" t="s">
         <v>1054</v>
       </c>
+      <c r="Q169" s="2" t="s">
+        <v>2897</v>
+      </c>
       <c r="R169" s="2" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="S169" s="2" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="V169" s="2" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="W169" s="2" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="X169" s="2" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="Z169" s="6"/>
     </row>
@@ -18896,16 +19053,16 @@
         <v>1661</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L170" s="2" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="N170" s="2" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="O170" s="2" t="s">
         <v>1061</v>
@@ -18913,29 +19070,32 @@
       <c r="P170" s="2" t="s">
         <v>1062</v>
       </c>
+      <c r="Q170" s="2" t="s">
+        <v>2898</v>
+      </c>
       <c r="R170" s="2" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="S170" s="2" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="T170" s="2" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="U170" s="2" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="V170" s="2" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="W170" s="2" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="X170" s="2" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="Z170" s="6" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="171" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -18964,19 +19124,19 @@
         <v>1663</v>
       </c>
       <c r="K171" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="O171" s="2" t="s">
         <v>1068</v>
       </c>
       <c r="P171" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="S171" s="2" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="X171" s="2" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="Z171" s="6"/>
     </row>
@@ -19006,34 +19166,34 @@
         <v>1665</v>
       </c>
       <c r="K172" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L172" s="2" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="O172" s="2" t="s">
         <v>1074</v>
       </c>
       <c r="P172" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q172" s="2" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="S172" s="2" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="T172" s="2" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="V172" s="2" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="W172" s="2" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="X172" s="2" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="Z172" s="6"/>
     </row>
@@ -19063,34 +19223,34 @@
         <v>1667</v>
       </c>
       <c r="K173" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L173" s="2" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="O173" s="2" t="s">
         <v>387</v>
       </c>
       <c r="P173" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q173" s="2" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="S173" s="2" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="V173" s="2" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="W173" s="2" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="X173" s="2" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="Z173" s="6"/>
     </row>
@@ -19120,19 +19280,19 @@
         <v>1616</v>
       </c>
       <c r="K174" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="O174" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P174" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="S174" s="2" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="X174" s="2" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="Z174" s="6"/>
     </row>
@@ -19162,34 +19322,34 @@
         <v>1521</v>
       </c>
       <c r="K175" s="2" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="L175" s="2" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="O175" s="2" t="s">
         <v>1090</v>
       </c>
       <c r="P175" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q175" s="2" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="R175" s="2" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="S175" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="V175" s="2" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="W175" s="2" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="X175" s="2" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="Z175" s="6"/>
     </row>
@@ -19219,34 +19379,34 @@
         <v>1671</v>
       </c>
       <c r="K176" s="2" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="L176" s="2" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="O176" s="2" t="s">
         <v>1096</v>
       </c>
       <c r="P176" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q176" s="2" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="R176" s="2" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="S176" s="2" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="V176" s="2" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="W176" s="2" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="X176" s="2" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="Z176" s="6"/>
     </row>
@@ -19276,7 +19436,7 @@
         <v>1673</v>
       </c>
       <c r="K177" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="O177" s="2" t="s">
         <v>1102</v>
@@ -19284,17 +19444,20 @@
       <c r="P177" s="2" t="s">
         <v>1103</v>
       </c>
+      <c r="Q177" s="2" t="s">
+        <v>2899</v>
+      </c>
       <c r="S177" s="2" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="V177" s="2" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="W177" s="2" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="X177" s="2" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="Z177" s="6"/>
     </row>
@@ -19324,22 +19487,22 @@
         <v>1675</v>
       </c>
       <c r="K178" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="O178" s="2" t="s">
         <v>1109</v>
       </c>
       <c r="P178" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q178" s="2" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="S178" s="2" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="X178" s="2" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="Z178" s="6"/>
     </row>
@@ -19372,10 +19535,10 @@
         <v>1677</v>
       </c>
       <c r="K179" s="2" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="L179" s="2" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="O179" s="2" t="s">
         <v>1116</v>
@@ -19383,20 +19546,23 @@
       <c r="P179" s="2" t="s">
         <v>1117</v>
       </c>
+      <c r="Q179" s="2" t="s">
+        <v>2900</v>
+      </c>
       <c r="S179" s="2" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="V179" s="2" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="W179" s="2" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="X179" s="2" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="Z179" s="6" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="180" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19431,16 +19597,16 @@
         <v>1679</v>
       </c>
       <c r="K180" s="2" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="L180" s="2" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="M180" s="2" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="N180" s="2" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="O180" s="2" t="s">
         <v>1125</v>
@@ -19448,23 +19614,26 @@
       <c r="P180" s="2" t="s">
         <v>1126</v>
       </c>
+      <c r="Q180" s="2" t="s">
+        <v>2901</v>
+      </c>
       <c r="S180" s="2" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="T180" s="2" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="U180" s="2" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="V180" s="2" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="W180" s="2" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="X180" s="2" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="Z180" s="6"/>
     </row>
@@ -19494,16 +19663,16 @@
         <v>1681</v>
       </c>
       <c r="K181" s="2" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="L181" s="2" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="M181" s="2" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="N181" s="2" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="O181" s="2" t="s">
         <v>1132</v>
@@ -19511,20 +19680,23 @@
       <c r="P181" s="2" t="s">
         <v>1133</v>
       </c>
+      <c r="Q181" s="2" t="s">
+        <v>2902</v>
+      </c>
       <c r="S181" s="2" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="T181" s="2" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="V181" s="2" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="W181" s="2" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="X181" s="2" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="Z181" s="6"/>
     </row>
@@ -19557,16 +19729,16 @@
         <v>1405</v>
       </c>
       <c r="K182" s="2" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="L182" s="2" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="M182" s="2" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="N182" s="2" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="O182" s="2" t="s">
         <v>1140</v>
@@ -19575,22 +19747,22 @@
         <v>1141</v>
       </c>
       <c r="S182" s="2" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="T182" s="2" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="U182" s="2" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="V182" s="2" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="W182" s="2" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="X182" s="2" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="Z182" s="6"/>
     </row>
@@ -19623,16 +19795,16 @@
         <v>1684</v>
       </c>
       <c r="K183" s="2" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="L183" s="2" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="M183" s="2" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="N183" s="2" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="O183" s="2" t="s">
         <v>1148</v>
@@ -19640,26 +19812,29 @@
       <c r="P183" s="2" t="s">
         <v>1149</v>
       </c>
+      <c r="Q183" s="2" t="s">
+        <v>2903</v>
+      </c>
       <c r="R183" s="2" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="S183" s="2" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="T183" s="2" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="V183" s="2" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="W183" s="2" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="X183" s="2" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="Z183" s="6" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="184" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19688,34 +19863,34 @@
         <v>1686</v>
       </c>
       <c r="K184" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="L184" s="2" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="M184" s="2" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="O184" s="2" t="s">
         <v>1155</v>
       </c>
       <c r="P184" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q184" s="2" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="S184" s="2" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="V184" s="2" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="W184" s="2" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="X184" s="2" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="Z184" s="6"/>
     </row>
@@ -19745,46 +19920,46 @@
         <v>1688</v>
       </c>
       <c r="K185" s="2" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="L185" s="2" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="M185" s="2" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="O185" s="2" t="s">
         <v>1161</v>
       </c>
       <c r="P185" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q185" s="2" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="R185" s="2" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="S185" s="2" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="T185" s="2" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="V185" s="2" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="W185" s="2" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="X185" s="2" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="Y185" s="2" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="Z185" s="6" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="186" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19813,34 +19988,34 @@
         <v>1690</v>
       </c>
       <c r="K186" s="2" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="L186" s="2" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M186" s="2" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="O186" s="2" t="s">
         <v>1167</v>
       </c>
       <c r="P186" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="R186" s="2" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="S186" s="2" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="X186" s="2" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="Y186" s="2" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="Z186" s="6" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="187" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19869,13 +20044,13 @@
         <v>1692</v>
       </c>
       <c r="K187" s="2" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="L187" s="2" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M187" s="2" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="O187" s="2" t="s">
         <v>100</v>
@@ -19883,20 +20058,23 @@
       <c r="P187" s="2" t="s">
         <v>1173</v>
       </c>
+      <c r="Q187" s="2" t="s">
+        <v>2904</v>
+      </c>
       <c r="R187" s="2" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="S187" s="2" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="X187" s="2" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="Y187" s="2" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="Z187" s="6" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="188" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19942,16 +20120,16 @@
         <v>1694</v>
       </c>
       <c r="K189" s="2" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="L189" s="2" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="M189" s="2" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="N189" s="2" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="O189" s="2" t="s">
         <v>1180</v>
@@ -19960,25 +20138,25 @@
         <v>1181</v>
       </c>
       <c r="S189" s="2" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="T189" s="2" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="U189" s="2" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="V189" s="2" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="W189" s="2" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="X189" s="2" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="Z189" s="6" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="190" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -20010,43 +20188,43 @@
         <v>1597</v>
       </c>
       <c r="K190" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L190" s="2" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M190" s="2" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="O190" s="2" t="s">
         <v>1188</v>
       </c>
       <c r="P190" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q190" s="2" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="S190" s="2" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="T190" s="2" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="U190" s="2" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="V190" s="2" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="W190" s="2" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="X190" s="2" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="Y190" s="2" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="Z190" s="6"/>
     </row>
@@ -20076,13 +20254,13 @@
         <v>1513</v>
       </c>
       <c r="K191" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L191" s="2" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="M191" s="2" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="O191" s="2" t="s">
         <v>1194</v>
@@ -20090,23 +20268,26 @@
       <c r="P191" s="2" t="s">
         <v>1195</v>
       </c>
+      <c r="Q191" s="2" t="s">
+        <v>2905</v>
+      </c>
       <c r="R191" s="2" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="S191" s="2" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="T191" s="2" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="V191" s="2" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="W191" s="2" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="X191" s="2" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="Z191" s="6"/>
     </row>
@@ -20136,16 +20317,16 @@
         <v>1479</v>
       </c>
       <c r="K192" s="2" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="O192" s="2" t="s">
         <v>855</v>
       </c>
       <c r="P192" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="S192" s="2" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="Z192" s="6"/>
     </row>
@@ -20175,13 +20356,13 @@
         <v>1437</v>
       </c>
       <c r="K193" s="2" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="L193" s="2" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="M193" s="2" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="O193" s="2" t="s">
         <v>1206</v>
@@ -20189,26 +20370,29 @@
       <c r="P193" s="2" t="s">
         <v>1207</v>
       </c>
+      <c r="Q193" s="2" t="s">
+        <v>2906</v>
+      </c>
       <c r="R193" s="2" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="S193" s="2" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="T193" s="2" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="V193" s="2" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="W193" s="2" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="X193" s="2" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="Z193" s="6" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="194" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -20237,10 +20421,10 @@
         <v>1700</v>
       </c>
       <c r="K194" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="L194" s="2" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="O194" s="2" t="s">
         <v>1213</v>
@@ -20248,23 +20432,26 @@
       <c r="P194" s="2" t="s">
         <v>1214</v>
       </c>
+      <c r="Q194" s="2" t="s">
+        <v>2907</v>
+      </c>
       <c r="R194" s="2" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="S194" s="2" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="V194" s="2" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="W194" s="2" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="X194" s="2" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="Z194" s="6" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="195" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -20293,7 +20480,7 @@
         <v>1702</v>
       </c>
       <c r="K195" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="O195" s="2" t="s">
         <v>1220</v>
@@ -20302,10 +20489,10 @@
         <v>1221</v>
       </c>
       <c r="S195" s="2" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="X195" s="2" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="Z195" s="6"/>
     </row>
@@ -20335,16 +20522,16 @@
         <v>1567</v>
       </c>
       <c r="K196" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="O196" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P196" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="S196" s="2" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="Z196" s="6"/>
     </row>
@@ -20374,25 +20561,25 @@
         <v>1624</v>
       </c>
       <c r="K197" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="O197" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P197" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="S197" s="2" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="V197" s="2" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="W197" s="2" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="X197" s="2" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="Z197" s="6"/>
     </row>
@@ -20422,16 +20609,16 @@
         <v>1706</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="O198" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P198" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="S198" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="Z198" s="6"/>
     </row>
@@ -20461,7 +20648,7 @@
         <v>1439</v>
       </c>
       <c r="K199" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="O199" s="2" t="s">
         <v>31</v>
@@ -20470,7 +20657,7 @@
         <v>251</v>
       </c>
       <c r="S199" s="2" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="Z199" s="6"/>
     </row>
@@ -20500,34 +20687,34 @@
         <v>1709</v>
       </c>
       <c r="K200" s="2" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="L200" s="2" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="O200" s="2" t="s">
         <v>1247</v>
       </c>
       <c r="P200" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q200" s="2" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="R200" s="2" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="S200" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="V200" s="2" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="W200" s="2" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="X200" s="2" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="Z200" s="6"/>
     </row>
@@ -20563,13 +20750,13 @@
         <v>1711</v>
       </c>
       <c r="K201" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L201" s="2" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="M201" s="2" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="O201" s="2" t="s">
         <v>1255</v>
@@ -20577,23 +20764,26 @@
       <c r="P201" s="2" t="s">
         <v>1256</v>
       </c>
+      <c r="Q201" s="2" t="s">
+        <v>2908</v>
+      </c>
       <c r="S201" s="2" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="T201" s="2" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="U201" s="2" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="V201" s="2" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="W201" s="2" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="X201" s="2" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="Z201" s="6"/>
     </row>
@@ -20623,28 +20813,28 @@
         <v>1439</v>
       </c>
       <c r="K202" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="O202" s="2" t="s">
         <v>1262</v>
       </c>
       <c r="P202" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q202" s="2" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="S202" s="2" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="V202" s="2" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="W202" s="2" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="X202" s="2" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="Z202" s="6"/>
     </row>
@@ -20674,31 +20864,31 @@
         <v>1384</v>
       </c>
       <c r="K203" s="2" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="O203" s="2" t="s">
         <v>1268</v>
       </c>
       <c r="P203" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q203" s="2" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="S203" s="2" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="V203" s="2" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="W203" s="2" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="X203" s="2" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="Y203" s="2" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="Z203" s="6"/>
     </row>
@@ -20731,13 +20921,13 @@
         <v>1489</v>
       </c>
       <c r="K204" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L204" s="2" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="M204" s="2" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="O204" s="2" t="s">
         <v>1275</v>
@@ -20745,20 +20935,23 @@
       <c r="P204" s="2" t="s">
         <v>1276</v>
       </c>
+      <c r="Q204" s="2" t="s">
+        <v>2909</v>
+      </c>
       <c r="S204" s="2" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="U204" s="2" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="V204" s="2" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="W204" s="2" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="X204" s="2" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="Z204" s="6"/>
     </row>
@@ -20791,46 +20984,46 @@
         <v>1716</v>
       </c>
       <c r="K205" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L205" s="2" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="M205" s="2" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="O205" s="2" t="s">
         <v>1283</v>
       </c>
       <c r="P205" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q205" s="2" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="R205" s="2" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="S205" s="2" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="T205" s="2" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="U205" s="2" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="V205" s="2" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="W205" s="2" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="X205" s="2" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="Z205" s="6" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="206" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -20859,25 +21052,25 @@
         <v>1718</v>
       </c>
       <c r="K206" s="2" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="O206" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P206" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="S206" s="2" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="V206" s="2" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="W206" s="2" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="X206" s="2" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="Z206" s="6"/>
     </row>
@@ -20907,34 +21100,34 @@
         <v>1720</v>
       </c>
       <c r="K207" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L207" s="2" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="O207" s="2" t="s">
         <v>1294</v>
       </c>
       <c r="P207" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q207" s="2" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="S207" s="2" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="V207" s="2" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="W207" s="2" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="X207" s="2" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="Y207" s="2" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="Z207" s="6"/>
     </row>
@@ -20984,13 +21177,13 @@
         <v>1722</v>
       </c>
       <c r="K209" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L209" s="2" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="M209" s="2" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="O209" s="2" t="s">
         <v>1302</v>
@@ -20998,23 +21191,26 @@
       <c r="P209" s="2" t="s">
         <v>1303</v>
       </c>
+      <c r="Q209" s="2" t="s">
+        <v>2910</v>
+      </c>
       <c r="S209" s="2" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="T209" s="2" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="U209" s="1" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="V209" s="2" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="W209" s="2" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="X209" s="2" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="Z209" s="6"/>
     </row>
@@ -21047,13 +21243,13 @@
         <v>1421</v>
       </c>
       <c r="K210" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L210" s="2" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="M210" s="2" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="O210" s="2" t="s">
         <v>1310</v>
@@ -21061,23 +21257,26 @@
       <c r="P210" s="2" t="s">
         <v>1311</v>
       </c>
+      <c r="Q210" s="2" t="s">
+        <v>2911</v>
+      </c>
       <c r="S210" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="U210" s="2" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="V210" s="2" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="W210" s="2" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="X210" s="2" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="Z210" s="6" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="211" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -21112,16 +21311,16 @@
         <v>1725</v>
       </c>
       <c r="K211" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L211" s="2" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="M211" s="2" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="N211" s="2" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="O211" s="2" t="s">
         <v>1319</v>
@@ -21129,23 +21328,26 @@
       <c r="P211" s="2" t="s">
         <v>1320</v>
       </c>
+      <c r="Q211" s="2" t="s">
+        <v>2912</v>
+      </c>
       <c r="S211" s="2" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="T211" s="2" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="U211" s="2" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="V211" s="2" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="W211" s="2" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="X211" s="5" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="Z211" s="6"/>
     </row>
@@ -21160,13 +21362,13 @@
         <v>1325</v>
       </c>
       <c r="M212" s="2" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="O212" s="2" t="s">
         <v>1326</v>
       </c>
       <c r="R212" s="2" t="s">
-        <v>1729</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="213" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -21180,13 +21382,13 @@
         <v>1329</v>
       </c>
       <c r="M213" s="2" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="O213" s="2" t="s">
         <v>1330</v>
       </c>
       <c r="R213" s="2" t="s">
-        <v>1729</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="214" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -21200,13 +21402,13 @@
         <v>1333</v>
       </c>
       <c r="M214" s="2" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="O214" s="2" t="s">
         <v>1334</v>
       </c>
       <c r="R214" s="2" t="s">
-        <v>1729</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="215" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -21220,13 +21422,13 @@
         <v>1337</v>
       </c>
       <c r="M215" s="2" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="O215" s="2" t="s">
         <v>1334</v>
       </c>
       <c r="R215" s="2" t="s">
-        <v>1729</v>
+        <v>2913</v>
       </c>
     </row>
   </sheetData>
